--- a/data/raw/vehicle_purchase_costs.xlsx
+++ b/data/raw/vehicle_purchase_costs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e1f62caf4ad83c4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasob\Downloads\EV_Diesel_Project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F1B2623E-9DC6-AE44-B5BB-25FD732A75A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF575E4D-1DC3-0448-B386-14957BFA92FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F136F9E7-D2A9-4184-92DE-F4E44A6FED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{86FD7B91-8632-4F4B-A2E2-F92D2F4351F9}"/>
+    <workbookView xWindow="7884" yWindow="3540" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{86FD7B91-8632-4F4B-A2E2-F92D2F4351F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>Sl No</t>
   </si>
@@ -207,30 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">3 Operator </t>
-  </si>
-  <si>
-    <t>dis/day</t>
-  </si>
-  <si>
-    <t>fuel cost</t>
-  </si>
-  <si>
-    <t>running cost</t>
-  </si>
-  <si>
-    <t>monthly cost</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fuel eff. Km/l</t>
-  </si>
-  <si>
-    <t>daily con. L</t>
   </si>
   <si>
     <t>difference</t>
@@ -826,7 +802,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1089,6 +1065,7 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,8 +1099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1463,32 +1438,32 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K27"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" customWidth="1"/>
+    <col min="4" max="4" width="36.296875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11">
         <v>1</v>
@@ -1545,7 +1520,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="17">
         <v>2</v>
@@ -1580,7 +1555,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="17">
         <v>3</v>
@@ -1615,7 +1590,7 @@
         <v>4140000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="17">
         <v>4</v>
@@ -1650,7 +1625,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="17">
         <v>5</v>
@@ -1661,15 +1636,15 @@
       <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="97" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="28">
-        <f>F6*F7*(1+F7)^84/((1+F7)^84-1)</f>
+        <f t="shared" ref="F8:K8" si="3">F6*F7*(1+F7)^84/((1+F7)^84-1)</f>
         <v>37352.664060493415</v>
       </c>
       <c r="G8" s="28">
-        <f t="shared" ref="G8:K8" si="3">G6*G7*(1+G7)^84/((1+G7)^84-1)</f>
+        <f t="shared" si="3"/>
         <v>22411.598436296048</v>
       </c>
       <c r="H8" s="28">
@@ -1689,9 +1664,9 @@
         <v>68728.901871307884</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="99">
+      <c r="B9" s="100">
         <v>6</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1700,13 +1675,13 @@
       <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="97"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="31">
-        <f>F4*0.1%</f>
+        <f t="shared" ref="F9:K9" si="4">F4*0.1%</f>
         <v>2500</v>
       </c>
       <c r="G9" s="32">
-        <f t="shared" ref="G9:K9" si="4">G4*0.1%</f>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H9" s="32">
@@ -1726,16 +1701,16 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="100"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="34" t="s">
         <v>19</v>
       </c>
@@ -1755,12 +1730,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="100"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="97"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="21">
         <f>((30000*2)+(16000*2))/6</f>
         <v>15333.333333333334</v>
@@ -1784,16 +1759,16 @@
         <v>26666.666666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="100"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="97"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="38" t="s">
         <v>20</v>
       </c>
@@ -1811,12 +1786,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="100"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="97"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
@@ -1836,22 +1811,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="100"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="31">
-        <f>F4*0.05%</f>
+        <f t="shared" ref="F14:K14" si="5">F4*0.05%</f>
         <v>1250</v>
       </c>
       <c r="G14" s="32">
-        <f t="shared" ref="G14:K14" si="5">G4*0.05%</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="H14" s="32">
@@ -1871,22 +1846,22 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="100"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="97"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="21">
-        <f>F4*0.02%</f>
+        <f t="shared" ref="F15:K15" si="6">F4*0.02%</f>
         <v>500</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" ref="G15:K15" si="6">G4*0.02%</f>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="H15" s="22">
@@ -1906,22 +1881,22 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="100"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="21">
-        <f>F4*0.01%</f>
+        <f t="shared" ref="F16:K16" si="7">F4*0.01%</f>
         <v>250</v>
       </c>
       <c r="G16" s="22">
-        <f t="shared" ref="G16:K16" si="7">G4*0.01%</f>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="H16" s="22">
@@ -1941,22 +1916,22 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="100"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="21">
-        <f>F4*0.01%</f>
+        <f t="shared" ref="F17:K17" si="8">F4*0.01%</f>
         <v>250</v>
       </c>
       <c r="G17" s="22">
-        <f t="shared" ref="G17:K17" si="8">G4*0.01%</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="H17" s="22">
@@ -1976,22 +1951,22 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="28">
-        <f>SUM(F9:F17)</f>
+        <f t="shared" ref="F18:K18" si="9">SUM(F9:F17)</f>
         <v>20083.333333333336</v>
       </c>
       <c r="G18" s="44">
-        <f t="shared" ref="G18:K18" si="9">SUM(G9:G17)</f>
+        <f t="shared" si="9"/>
         <v>2850</v>
       </c>
       <c r="H18" s="44">
@@ -2011,7 +1986,7 @@
         <v>35406.666666666672</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="42"/>
       <c r="C19" s="43" t="s">
@@ -2046,7 +2021,7 @@
         <v>104135.56853797456</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -2059,7 +2034,7 @@
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="17">
         <v>7</v>
@@ -2088,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="17">
         <v>8</v>
@@ -2103,27 +2078,27 @@
         <v>24613.5</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" ref="G22:K22" si="11">800*G21*26</f>
+        <f>800*G21*26</f>
         <v>20800</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" si="11"/>
+        <f>800*H21*26</f>
         <v>20800</v>
       </c>
       <c r="I22" s="22">
-        <f t="shared" si="11"/>
+        <f>800*I21*26</f>
         <v>20800</v>
       </c>
       <c r="J22" s="22">
-        <f t="shared" si="11"/>
+        <f>800*J21*26</f>
         <v>20800</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="11"/>
+        <f>800*K21*26</f>
         <v>20800</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="17">
         <v>9</v>
@@ -2134,31 +2109,31 @@
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="55">
-        <f>F22+F19</f>
+        <f t="shared" ref="F23:K23" si="11">F22+F19</f>
         <v>82049.49739382675</v>
       </c>
       <c r="G23" s="56">
-        <f t="shared" ref="G23:K23" si="12">G22+G19</f>
+        <f t="shared" si="11"/>
         <v>46061.598436296044</v>
       </c>
       <c r="H23" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>69639.090310172352</v>
       </c>
       <c r="I23" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>90691.409997431561</v>
       </c>
       <c r="J23" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>124373.5412458263</v>
       </c>
       <c r="K23" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>124935.56853797456</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="17">
         <v>10</v>
@@ -2169,31 +2144,31 @@
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="55">
-        <f>F23*1.1</f>
+        <f t="shared" ref="F24:K24" si="12">F23*1.1</f>
         <v>90254.44713320944</v>
       </c>
       <c r="G24" s="56">
-        <f t="shared" ref="G24:K24" si="13">G23*1.1</f>
+        <f t="shared" si="12"/>
         <v>50667.758279925656</v>
       </c>
       <c r="H24" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>76602.999341189599</v>
       </c>
       <c r="I24" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>99760.550997174723</v>
       </c>
       <c r="J24" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>136810.89537040895</v>
       </c>
       <c r="K24" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>137429.12539177202</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="17">
         <v>11</v>
@@ -2222,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="59">
         <v>12</v>
@@ -2233,31 +2208,31 @@
       </c>
       <c r="E26" s="62"/>
       <c r="F26" s="63">
-        <f>F25*F24</f>
+        <f t="shared" ref="F26:K26" si="13">F25*F24</f>
         <v>90254.44713320944</v>
       </c>
       <c r="G26" s="64">
-        <f t="shared" ref="G26:K26" si="14">G25*G24</f>
+        <f t="shared" si="13"/>
         <v>50667.758279925656</v>
       </c>
       <c r="H26" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>76602.999341189599</v>
       </c>
       <c r="I26" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>99760.550997174723</v>
       </c>
       <c r="J26" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>136810.89537040895</v>
       </c>
       <c r="K26" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>137429.12539177202</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="65">
         <v>13</v>
@@ -2274,7 +2249,7 @@
       <c r="J27" s="70"/>
       <c r="K27" s="71"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
       <c r="F30" s="73"/>
@@ -2283,7 +2258,7 @@
       <c r="I30" s="73"/>
       <c r="J30" s="73"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
       <c r="F31" s="74"/>
@@ -2292,28 +2267,28 @@
       <c r="I31" s="73"/>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
       <c r="I32" s="73"/>
       <c r="J32" s="73"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
       <c r="H33" s="73"/>
       <c r="I33" s="73"/>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
       <c r="J34" s="73"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
       <c r="H35" s="73"/>
@@ -2321,7 +2296,7 @@
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
       <c r="H36" s="73"/>
@@ -2329,7 +2304,7 @@
       <c r="J36" s="73"/>
       <c r="K36" s="73"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F37" s="73"/>
       <c r="G37" s="73"/>
       <c r="H37" s="73"/>
@@ -2337,7 +2312,7 @@
       <c r="J37" s="73"/>
       <c r="K37" s="73"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
       <c r="F40" s="73"/>
@@ -2347,7 +2322,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
       <c r="H41" s="73"/>
@@ -2355,7 +2330,7 @@
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F42" s="73"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -2378,27 +2353,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089DEC7B-54F5-3E42-9BDC-CD2D735CFACD}">
   <dimension ref="C2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="74" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.69921875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:15" ht="24.6" x14ac:dyDescent="0.4">
       <c r="E2" s="90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="77" t="s">
         <v>44</v>
       </c>
@@ -2414,10 +2389,10 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="82">
         <v>1</v>
       </c>
@@ -2432,12 +2407,12 @@
       <c r="I6" s="16">
         <v>4600000</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="96">
         <f>G6-I6</f>
         <v>-1300000</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="82">
         <v>2</v>
       </c>
@@ -2451,15 +2426,15 @@
         <v>330000</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" ref="I7" si="0">I6*10%</f>
+        <f>I6*10%</f>
         <v>460000</v>
       </c>
-      <c r="K7" s="108">
-        <f t="shared" ref="K7:K28" si="1">G7-I7</f>
+      <c r="K7" s="96">
+        <f t="shared" ref="K7:K28" si="0">G7-I7</f>
         <v>-130000</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="82">
         <v>3</v>
       </c>
@@ -2473,15 +2448,15 @@
         <v>2970000</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" ref="I8" si="2">I6*90%</f>
+        <f>I6*90%</f>
         <v>4140000</v>
       </c>
-      <c r="K8" s="108">
-        <f t="shared" si="1"/>
+      <c r="K8" s="96">
+        <f t="shared" si="0"/>
         <v>-1170000</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9" s="82">
         <v>4</v>
       </c>
@@ -2495,15 +2470,15 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="I9" s="26">
-        <f t="shared" ref="I9" si="3">10/12/100</f>
+        <f>10/12/100</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="K9" s="108">
-        <f t="shared" si="1"/>
+      <c r="K9" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="82">
         <v>5</v>
       </c>
@@ -2513,7 +2488,7 @@
       <c r="E10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="105" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="77">
@@ -2521,16 +2496,16 @@
         <v>49305.516559851305</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10" si="4">I8*I9*(1+I9)^84/((1+I9)^84-1)</f>
+        <f>I8*I9*(1+I9)^84/((1+I9)^84-1)</f>
         <v>68728.901871307884</v>
       </c>
-      <c r="K10" s="108">
-        <f t="shared" si="1"/>
+      <c r="K10" s="96">
+        <f t="shared" si="0"/>
         <v>-19423.385311456579</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="C11" s="105">
+    <row r="11" spans="3:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C11" s="106">
         <v>6</v>
       </c>
       <c r="D11" s="82" t="s">
@@ -2539,45 +2514,45 @@
       <c r="E11" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="104"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="77">
         <f>G6*0.1%</f>
         <v>3300</v>
       </c>
       <c r="I11" s="32">
-        <f t="shared" ref="I11" si="5">I6*0.1%</f>
+        <f>I6*0.1%</f>
         <v>4600</v>
       </c>
-      <c r="K11" s="108">
-        <f t="shared" si="1"/>
+      <c r="K11" s="96">
+        <f t="shared" si="0"/>
         <v>-1300</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="105"/>
+    <row r="12" spans="3:15" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="106"/>
       <c r="D12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="36" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="108" t="e">
-        <f t="shared" si="1"/>
+      <c r="K12" s="96" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="105"/>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="106"/>
       <c r="D13" s="82"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="104"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="86">
         <f>(16000*10)/6</f>
         <v>26666.666666666668</v>
@@ -2586,37 +2561,37 @@
         <f>(16000*10)/6</f>
         <v>26666.666666666668</v>
       </c>
-      <c r="K13" s="108">
-        <f t="shared" si="1"/>
+      <c r="K13" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="105"/>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="106"/>
       <c r="D14" s="82"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="104"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="77"/>
       <c r="I14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="108" t="e">
-        <f t="shared" si="1"/>
+      <c r="K14" s="96" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="N14" s="91"/>
     </row>
-    <row r="15" spans="3:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="C15" s="105"/>
+    <row r="15" spans="3:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="C15" s="106"/>
       <c r="D15" s="82"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="104"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="77"/>
       <c r="I15" s="41">
         <v>0</v>
       </c>
-      <c r="K15" s="108">
-        <f t="shared" si="1"/>
+      <c r="K15" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="95" t="s">
@@ -2626,25 +2601,25 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="C16" s="105"/>
+    <row r="16" spans="3:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="C16" s="106"/>
       <c r="D16" s="82" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="104"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="77">
         <f>G6*0.05%</f>
         <v>1650</v>
       </c>
       <c r="I16" s="32">
-        <f t="shared" ref="I16" si="6">I6*0.05%</f>
+        <f>I6*0.05%</f>
         <v>2300</v>
       </c>
-      <c r="K16" s="108">
-        <f t="shared" si="1"/>
+      <c r="K16" s="96">
+        <f t="shared" si="0"/>
         <v>-650</v>
       </c>
       <c r="N16" s="95" t="s">
@@ -2654,25 +2629,25 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="C17" s="105"/>
+    <row r="17" spans="3:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="C17" s="106"/>
       <c r="D17" s="82" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="77">
         <f>G6*0.02%</f>
         <v>660</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" ref="I17" si="7">I6*0.02%</f>
+        <f>I6*0.02%</f>
         <v>920</v>
       </c>
-      <c r="K17" s="108">
-        <f t="shared" si="1"/>
+      <c r="K17" s="96">
+        <f t="shared" si="0"/>
         <v>-260</v>
       </c>
       <c r="N17" s="95" t="s">
@@ -2682,25 +2657,25 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="C18" s="105"/>
+    <row r="18" spans="3:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="C18" s="106"/>
       <c r="D18" s="82" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="77">
         <f>G6*0.01%</f>
         <v>330</v>
       </c>
       <c r="I18" s="22">
-        <f t="shared" ref="I18" si="8">I6*0.01%</f>
+        <f>I6*0.01%</f>
         <v>460</v>
       </c>
-      <c r="K18" s="108">
-        <f t="shared" si="1"/>
+      <c r="K18" s="96">
+        <f t="shared" si="0"/>
         <v>-130</v>
       </c>
       <c r="N18" s="95" t="s">
@@ -2710,25 +2685,25 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="C19" s="105"/>
+    <row r="19" spans="3:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="C19" s="106"/>
       <c r="D19" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="104"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="77">
         <f>G6*0.01%</f>
         <v>330</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" ref="I19" si="9">I6*0.01%</f>
+        <f>I6*0.01%</f>
         <v>460</v>
       </c>
-      <c r="K19" s="108">
-        <f t="shared" si="1"/>
+      <c r="K19" s="96">
+        <f t="shared" si="0"/>
         <v>-130</v>
       </c>
       <c r="N19" s="95" t="s">
@@ -2738,30 +2713,30 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="C20" s="105"/>
+    <row r="20" spans="3:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="106"/>
       <c r="D20" s="82" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="104"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="86">
         <f>SUM(G13:G19)</f>
         <v>29636.666666666668</v>
       </c>
       <c r="I20" s="44">
-        <f t="shared" ref="I20" si="10">SUM(I11:I19)</f>
+        <f>SUM(I11:I19)</f>
         <v>35406.666666666672</v>
       </c>
-      <c r="K20" s="108">
-        <f t="shared" si="1"/>
+      <c r="K20" s="96">
+        <f t="shared" si="0"/>
         <v>-5770.0000000000036</v>
       </c>
       <c r="N20" s="92"/>
     </row>
-    <row r="21" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21" s="77"/>
       <c r="D21" s="78" t="s">
         <v>35</v>
@@ -2776,29 +2751,29 @@
       </c>
       <c r="H21" s="75"/>
       <c r="I21" s="93">
-        <f t="shared" ref="I21" si="11">I20+I10</f>
+        <f>I20+I10</f>
         <v>104135.56853797456</v>
       </c>
       <c r="J21" s="76"/>
-      <c r="K21" s="108">
-        <f t="shared" si="1"/>
+      <c r="K21" s="96">
+        <f t="shared" si="0"/>
         <v>-25193.385311456586</v>
       </c>
       <c r="L21" s="76"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22" s="77"/>
       <c r="D22" s="77"/>
       <c r="E22" s="77"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="I22" s="93"/>
-      <c r="K22" s="108">
-        <f t="shared" si="1"/>
+      <c r="K22" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23" s="77">
         <v>7</v>
       </c>
@@ -2813,12 +2788,12 @@
       <c r="I23" s="22">
         <v>1</v>
       </c>
-      <c r="K23" s="108">
-        <f t="shared" si="1"/>
+      <c r="K23" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="77">
         <v>8</v>
       </c>
@@ -2832,15 +2807,15 @@
         <v>20800</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" ref="I24" si="12">800*I23*26</f>
+        <f>800*I23*26</f>
         <v>20800</v>
       </c>
-      <c r="K24" s="108">
-        <f t="shared" si="1"/>
+      <c r="K24" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="77">
         <v>9</v>
       </c>
@@ -2854,15 +2829,15 @@
         <v>99742.183226517969</v>
       </c>
       <c r="I25" s="56">
-        <f t="shared" ref="I25" si="13">I24+I21</f>
+        <f>I24+I21</f>
         <v>124935.56853797456</v>
       </c>
-      <c r="K25" s="108">
-        <f t="shared" si="1"/>
+      <c r="K25" s="96">
+        <f t="shared" si="0"/>
         <v>-25193.385311456586</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="77">
         <v>10</v>
       </c>
@@ -2876,15 +2851,15 @@
         <v>109716.40154916978</v>
       </c>
       <c r="I26" s="56">
-        <f t="shared" ref="I26" si="14">I25*1.1</f>
+        <f>I25*1.1</f>
         <v>137429.12539177202</v>
       </c>
-      <c r="K26" s="108">
-        <f t="shared" si="1"/>
+      <c r="K26" s="96">
+        <f t="shared" si="0"/>
         <v>-27712.723842602238</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="77">
         <v>11</v>
       </c>
@@ -2899,12 +2874,12 @@
       <c r="I27" s="58">
         <v>1</v>
       </c>
-      <c r="K27" s="108">
-        <f t="shared" si="1"/>
+      <c r="K27" s="96">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="77">
         <v>12</v>
       </c>
@@ -2918,15 +2893,15 @@
         <v>109716.40154916978</v>
       </c>
       <c r="I28" s="64">
-        <f t="shared" ref="I28" si="15">I27*I26</f>
+        <f>I27*I26</f>
         <v>137429.12539177202</v>
       </c>
-      <c r="K28" s="108">
-        <f t="shared" si="1"/>
+      <c r="K28" s="96">
+        <f t="shared" si="0"/>
         <v>-27712.723842602238</v>
       </c>
     </row>
-    <row r="29" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="81"/>
       <c r="I29" s="71"/>
     </row>
@@ -2939,84 +2914,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC2EE7-D079-664C-A6F1-0047BB7D15B1}">
-  <dimension ref="C3:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="10.83203125" style="107"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D3" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="107">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="107">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="107">
-        <f>D5/D6</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="107">
-        <f>D7*D8</f>
-        <v>6666.666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="107">
-        <f>D9*30</f>
-        <v>200000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>